--- a/artfynd/A 59701-2021.xlsx
+++ b/artfynd/A 59701-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112435719</v>
       </c>
       <c r="B2" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>112388707</v>
       </c>
       <c r="B3" t="n">
-        <v>90466</v>
+        <v>90480</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
